--- a/NOAAsubset.xlsx
+++ b/NOAAsubset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC160E8F-0D45-495C-80B4-55193CA9A42F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DE3C35-3C4A-4633-A0B4-B0C712C07BCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8328" yWindow="2904" windowWidth="17280" windowHeight="6012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3337" yWindow="1890" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +366,13 @@
   <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A575" sqref="A575"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>19940410</v>
       </c>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>19940411</v>
       </c>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>19940412</v>
       </c>
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>19940413</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>19940414</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>19940415</v>
       </c>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>19940416</v>
       </c>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>19940417</v>
       </c>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>19940418</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>19940419</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>19940420</v>
       </c>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>19940421</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>19940422</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>19940423</v>
       </c>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>19940424</v>
       </c>
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>19940425</v>
       </c>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>19940426</v>
       </c>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>19940427</v>
       </c>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19940428</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19940429</v>
       </c>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>19940430</v>
       </c>
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>19940501</v>
       </c>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>19940502</v>
       </c>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>19940503</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>19940504</v>
       </c>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>19940505</v>
       </c>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>19940506</v>
       </c>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>19940507</v>
       </c>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>19940508</v>
       </c>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>19940509</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>19940510</v>
       </c>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>19940511</v>
       </c>
@@ -866,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>19940512</v>
       </c>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>19940513</v>
       </c>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>19940514</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>19940515</v>
       </c>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>19940516</v>
       </c>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>19940517</v>
       </c>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>19940518</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>19940519</v>
       </c>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>19940520</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>19940521</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>19940522</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>19940523</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>19940524</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>19940525</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>19940526</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>19940527</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>19940528</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>19940529</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>19940530</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>19940531</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>19940601</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>19940602</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>19940603</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>19940604</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>19940605</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>19940606</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>19940607</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>19940608</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>19940609</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>19940610</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>19940611</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>19940612</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>19940613</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>19940614</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>19940615</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>19940616</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>19940617</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>19940618</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>19940619</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>19940620</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>19940621</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>19940622</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>19940623</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>19940624</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>19940625</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>19940626</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>19940627</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>19940628</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>19940629</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>19940630</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>19940701</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>19940702</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>19940703</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>19940704</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>19940705</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>19940706</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>19940707</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>19940708</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>19940709</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>19940710</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>19940711</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>19940712</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>19940713</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>19940714</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>19940715</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>19940716</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>19940717</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>19940718</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>19940719</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>19940720</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>19940721</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>19940722</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>19940723</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>19940724</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>19940725</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>19940726</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>19940727</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>19940728</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>19940729</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>19940730</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>19940731</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>19940801</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>19940802</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>19940803</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>19940804</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>19940805</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>19940806</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>19940807</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>19940808</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>19940809</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>19940810</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>19940811</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>19940812</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>19940813</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>19940814</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>19940815</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>19940816</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>19940817</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>19940818</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>19940819</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>19940820</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>19940821</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>19940822</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>19940823</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>19940824</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>19940825</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>19940826</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>19940827</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>19940828</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>19940829</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>19940830</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>19940831</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>19940901</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>19940902</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>19940903</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>19940904</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>19940905</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>19940906</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>19940907</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>19940908</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>19940909</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>19940910</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>19940911</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>19940912</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>19940913</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>19940914</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>19940915</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>19940916</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>19940917</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>19940918</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>19940919</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>19940920</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>19940921</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>19940922</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>19940923</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>19940924</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>19940925</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>19940926</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>19940927</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>19940928</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>19940929</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>19940930</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>19941001</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>19941002</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>19941003</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>19941004</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>19941005</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>19941006</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>19941007</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>19941008</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>19941009</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>19941010</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>19941011</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>19941012</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>19941013</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>19941014</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>19941015</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>19941016</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>19941017</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>19941018</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>19941019</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>19941020</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>19941021</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>19941022</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>19941023</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>19941024</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>19941025</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>19941026</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>19941027</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>19941028</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>19941029</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>19941030</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>19941031</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>19941101</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>19941102</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>19941103</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>19941104</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>19941105</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>19941106</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>19941107</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>19941108</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>19941109</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>19941110</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>19941111</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>19941112</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>19941113</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>19941114</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>19941115</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>19941116</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>19941117</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>19941118</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>19941119</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>19941120</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>19941121</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>19941122</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>19941123</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>19941124</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>19941125</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>19941126</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>19941127</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>19941128</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>19941129</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>19941130</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>19941201</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>19941202</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>19941203</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>19941204</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>19941205</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>19941206</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>19941207</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>19941208</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>19941209</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>19941210</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>19941211</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>19941212</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>19941213</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>19941214</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>19941215</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>19941216</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>19941217</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>19941218</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>19941219</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>19941220</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>19941221</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>19941222</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>19941223</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>19941224</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>19941225</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>19941226</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>19941227</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>19941228</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>19941229</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>19941230</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>19941231</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>19950101</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>19950102</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>19950103</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>19950104</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>19950105</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>19950106</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>19950107</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>19950108</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>19950109</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>19950110</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>19950111</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>19950112</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>19950113</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>19950114</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>19950115</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>19950116</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>19950117</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>19950118</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>19950119</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>19950120</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>19950121</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>19950122</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>19950123</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>19950124</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>19950125</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>19950126</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>19950127</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>19950128</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>19950129</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>19950130</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>19950131</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>19950201</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>19950202</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>19950203</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>19950204</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>19950205</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>19950206</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>19950207</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>19950208</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>19950209</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>19950210</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>19950211</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>19950212</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>19950213</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>19950214</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>19950215</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>19950216</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>19950217</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>19950218</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>19950219</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>19950220</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>19950221</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>19950222</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>19950223</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>19950224</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>19950225</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>19950226</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>19950227</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>19950228</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>19950301</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>19950302</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>19950303</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>19950304</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>19950305</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>19950306</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>19950307</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>19950308</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>19950309</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>19950310</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>19950311</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>19950312</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>19950313</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>19950314</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>19950315</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>19950316</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>19950317</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>19950318</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>19950319</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>19950320</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>19950321</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>19950322</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>19950323</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>19950324</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>19950325</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>19950326</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>19950327</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>19950328</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>19950329</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>19950330</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>19950331</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>19950401</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>19950402</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>19950403</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>19950404</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>19950405</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>19950406</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>19950407</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>19950408</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>19950409</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>19950410</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>19950411</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>19950412</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>19950413</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>19950414</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>19950415</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>19950416</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>19950417</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>19950418</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>19950419</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>19950420</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>19950421</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>19950422</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>19950423</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>19950424</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>19950425</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>19950426</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>19950427</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>19950428</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>19950429</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>19950430</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>19950501</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>19950502</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>19950503</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>19950504</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>19950505</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>19950506</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>19950507</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>19950508</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>19950509</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>19950510</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>19950511</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>19950512</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>19950513</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>19950514</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>19950515</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>19950516</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>19950517</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>19950518</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>19950519</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>19950520</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>19950521</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>19950522</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>19950523</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>19950524</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>19950525</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>19950526</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>19950527</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>19950528</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>19950529</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>19950530</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>19950531</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>19950601</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>19950602</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>19950603</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>19950604</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>19950605</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>19950606</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>19950607</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>19950608</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>19950609</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>19950610</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>19950611</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>19950612</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>19950613</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>19950614</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>19950615</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>19950616</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>19950617</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>19950618</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>19950619</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>19950620</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>19950621</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>19950622</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>19950623</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>19950624</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>19950625</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>19950626</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>19950627</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>19950628</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>19950629</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>19950630</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>19950701</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>19950702</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>19950703</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>19950704</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>19950705</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>19950706</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>19950707</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>19950708</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>19950709</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>19950710</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>19950711</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>19950712</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>19950713</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>19950714</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>19950715</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>19950716</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>19950717</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>19950718</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>19950719</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>19950720</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>19950721</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>19950722</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>19950723</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>19950724</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>19950725</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>19950726</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>19950727</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>19950728</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>19950729</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>19950730</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>19950731</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>19950801</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>19950802</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>19950803</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>19950804</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>19950805</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>19950806</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>19950807</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>19950808</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>19950809</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>19950810</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>19950811</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>19950812</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>19950813</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>19950814</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>19950815</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>19950816</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>19950817</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>19950818</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>19950819</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>19950820</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>19950821</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>19950822</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>19950823</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>19950824</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>19950825</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>19950826</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>19950827</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>19950828</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>19950829</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>19950830</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>19950831</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>19950901</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>19950902</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>19950903</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>19950904</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>19950905</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>19950906</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>19950907</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>19950908</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>19950909</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>19950910</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>19950911</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>19950912</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>19950913</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>19950914</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>19950915</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>19950916</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>19950917</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>19950918</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>19950919</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>19950920</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>19950921</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>19950922</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>19950923</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>19950924</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>19950925</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>19950926</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>19950927</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>19950928</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>19950929</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>19950930</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>19951001</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>19951002</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>19951003</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>19951004</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>19951005</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>19951006</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>19951007</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>19951008</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>19951009</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>19951010</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>19951011</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>19951012</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>19951013</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>19951014</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>19951015</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>19951016</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>19951017</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>19951018</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>19951019</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>19951020</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>19951021</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>19951022</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>19951023</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>19951024</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>19951025</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>19951026</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>19951027</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>19951028</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>19951029</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>19951030</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>19951031</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>19951101</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>19951102</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>19951103</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>19951104</v>
       </c>
@@ -8969,9 +8969,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A576">
-        <v>19950805</v>
+        <f>A575+1</f>
+        <v>19951105</v>
       </c>
       <c r="B576">
         <v>467</v>
@@ -8984,9 +8985,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A577">
-        <v>19950806</v>
+        <f t="shared" ref="A577:A589" si="9">A576+1</f>
+        <v>19951106</v>
       </c>
       <c r="B577">
         <v>472</v>
@@ -8999,9 +9001,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A578">
-        <v>19950807</v>
+        <f t="shared" si="9"/>
+        <v>19951107</v>
       </c>
       <c r="B578">
         <v>467</v>
@@ -9014,9 +9017,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A579">
-        <v>19950808</v>
+        <f t="shared" si="9"/>
+        <v>19951108</v>
       </c>
       <c r="B579">
         <v>467</v>
@@ -9025,13 +9029,14 @@
         <v>433</v>
       </c>
       <c r="D579" s="1">
-        <f t="shared" ref="D579:D589" si="9">ROUNDUP((ROW()-1)/14,0)</f>
+        <f t="shared" ref="D579:D589" si="10">ROUNDUP((ROW()-1)/14,0)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A580">
-        <v>19950809</v>
+        <f t="shared" si="9"/>
+        <v>19951109</v>
       </c>
       <c r="B580">
         <v>461</v>
@@ -9040,13 +9045,14 @@
         <v>433</v>
       </c>
       <c r="D580" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A581">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581">
-        <v>19950810</v>
+        <v>19951110</v>
       </c>
       <c r="B581">
         <v>433</v>
@@ -9055,13 +9061,14 @@
         <v>411</v>
       </c>
       <c r="D581" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A582">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582">
-        <v>19950811</v>
+        <v>19951111</v>
       </c>
       <c r="B582">
         <v>411</v>
@@ -9070,13 +9077,14 @@
         <v>394</v>
       </c>
       <c r="D582" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A583">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583">
-        <v>19950812</v>
+        <v>19951112</v>
       </c>
       <c r="B583">
         <v>406</v>
@@ -9085,13 +9093,14 @@
         <v>389</v>
       </c>
       <c r="D583" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A584">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584">
-        <v>19950813</v>
+        <v>19951113</v>
       </c>
       <c r="B584">
         <v>444</v>
@@ -9100,13 +9109,14 @@
         <v>389</v>
       </c>
       <c r="D584" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A585">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585">
-        <v>19950814</v>
+        <v>19951114</v>
       </c>
       <c r="B585">
         <v>444</v>
@@ -9115,13 +9125,14 @@
         <v>428</v>
       </c>
       <c r="D585" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A586">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586">
-        <v>19950815</v>
+        <v>19951115</v>
       </c>
       <c r="B586">
         <v>433</v>
@@ -9130,13 +9141,14 @@
         <v>400</v>
       </c>
       <c r="D586" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A587">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587">
-        <v>19950816</v>
+        <v>19951116</v>
       </c>
       <c r="B587">
         <v>406</v>
@@ -9145,13 +9157,14 @@
         <v>394</v>
       </c>
       <c r="D587" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A588">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588">
-        <v>19950817</v>
+        <v>19951117</v>
       </c>
       <c r="B588">
         <v>406</v>
@@ -9160,13 +9173,14 @@
         <v>400</v>
       </c>
       <c r="D588" s="1">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A589">
         <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589">
-        <v>19950818</v>
+        <v>19951118</v>
       </c>
       <c r="B589">
         <v>406</v>
@@ -9175,7 +9189,7 @@
         <v>394</v>
       </c>
       <c r="D589" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
     </row>
